--- a/SuppXLS/Scn_ELCMANHEAT_share_50_100.xlsx
+++ b/SuppXLS/Scn_ELCMANHEAT_share_50_100.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28CB953C-7A2E-4EEC-A886-BF0D2914505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{28CB953C-7A2E-4EEC-A886-BF0D2914505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7A3E772-9715-404E-A58F-A4AE108F21D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28429471-0859-4B11-9767-CA239E220547}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28429471-0859-4B11-9767-CA239E220547}"/>
   </bookViews>
   <sheets>
-    <sheet name="ELC_HEAT_80_100" sheetId="1" r:id="rId1"/>
+    <sheet name="ELC_HEAT_50_100" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -145,11 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +487,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,13 +519,13 @@
       <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -550,17 +549,17 @@
         <v>14</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>2050</v>
       </c>
       <c r="E4" t="s">
@@ -577,8 +576,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
